--- a/biology/Botanique/Chèvrefeuille_d'hiver/Chèvrefeuille_d'hiver.xlsx
+++ b/biology/Botanique/Chèvrefeuille_d'hiver/Chèvrefeuille_d'hiver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_d%27hiver</t>
+          <t>Chèvrefeuille_d'hiver</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lonicera fragrantissima
 Lonicera  fragrantissima,   chèvrefeuille d'hiver  ou  chèvrefeuille très odorant, en anglais Fragrant Honeysuckle ou Winter Honeysuckle est une espèce de chèvrefeuille, arbustes de la famille des caprifoliacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_d%27hiver</t>
+          <t>Chèvrefeuille_d'hiver</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste haut de 2 à 3 mètres buissonnant.
 Ses feuilles ovales, opposées, longues de 2,5 à 7 cm sont semi-persistantes.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vrefeuille_d%27hiver</t>
+          <t>Chèvrefeuille_d'hiver</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lonicera fragrantissima est originaire des forêts de feuillus de l'Est de la Chine. Il a été introduit en Angleterre vers 1830 par Robert Fortune[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lonicera fragrantissima est originaire des forêts de feuillus de l'Est de la Chine. Il a été introduit en Angleterre vers 1830 par Robert Fortune.
 Sa floraison parfumée en hiver en fait un arbuste très cultivé et qui a donné lieu à des croisements par les pépiniéristes.
 </t>
         </is>
